--- a/medicine/Enfance/Alan_E._Nourse/Alan_E._Nourse.xlsx
+++ b/medicine/Enfance/Alan_E._Nourse/Alan_E._Nourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alan E. Nourse, né le 11 août 1928 à Des Moines en Iowa et mort le 19 juillet 1992 (à 63 ans) à Thorp (en) dans l'État de Washington, est un médecin et un écrivain américain de science-fiction et de littérature d'enfance et de jeunesse. Il a signé de nombreux récits de science-fiction pour enfants et adultes, ainsi que divers ouvrages, principalement de médecine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alan E. Nourse grandit jusqu'à l'âge de 15 ans à Des Moines (États-Unis), où il est né en 1928, puis déménage avec sa famille à New York.
 Il amorce des études de médecine, puis s'engage dans les troupes médicales de l'U.S. Navy de 1946 à 1948.
@@ -552,34 +566,207 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive
-Romans
-A Man Obsessed (1955)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A Man Obsessed (1955)
 The Invaders Are Coming! (1959), en collaboration avec J. A. Meyer
 The Universe Between (1965)
 The Mercy Men (revision de A Man Obsessed), (1968)
 The Bladerunner (1974)
 The Practice (1978)
-The Fourth Horseman (1983)
-Romans pour la jeunesse
-Révolte sur Titan, Hatier, 1971 ((en) Trouble on Titan, 1954)Bande dessinée
+The Fourth Horseman (1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Révolte sur Titan, Hatier, 1971 ((en) Trouble on Titan, 1954)Bande dessinée
 Rocket to Limbo (1957)
 Scavengers in Space (1959)
 Star Surgeon (1960)
-Raiders from the Rings (1962)
-Recueils de nouvelles
-Tiger by the Tail (1961), publié sous le titre Beyond Infiniy au Royaume-Uni
+Raiders from the Rings (1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiger by the Tail (1961), publié sous le titre Beyond Infiniy au Royaume-Uni
 The Counterfeit Man and Other Stories (1963)
 Psi-High (1967)
 Rx for Tomorrow (1971)
 (en) 12 Worlds of Alan E. Nourse, 2010
 De plus, Alan Nourse a publié de très nombreuses nouvelles qui n'ont pas été reprises en volume.
-Anthologie de nouvelles
-Mon frère en cauchemar, 1954 ((en) Nightmare Brother, 1954)
-Ouvrages médicaux
-So You Want to Be a Doctor (1957)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anthologie de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mon frère en cauchemar, 1954 ((en) Nightmare Brother, 1954)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages médicaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>So You Want to Be a Doctor (1957)
 So You Want to Be a Nurse (1961)
 Intern (1965), signé du pseudonyme Doctor X
 Le Corps, Robert Laffont Sciences, 1969 ((en) The Body, 1965)
@@ -588,9 +775,43 @@
 AIDS: an Impact Book (1986)
 Teen Guide to Safe Sex (1990)
 Sexually Transmitted Diseases (1992)
-The Virus Invaders: a Venture Book (1992)
-Autres publications
-Nine Planets (1960, édition révisée en 1970)
+The Virus Invaders: a Venture Book (1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_E._Nourse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nine Planets (1960, édition révisée en 1970)
 Universe, Earth and Atom: The Story of Physics (1969)
 Venus and Mercury: a First Book (1972)
 The Backyard Astronomer (1973)
